--- a/data/long_dif/P31-Edad-long_dif.xlsx
+++ b/data/long_dif/P31-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,76%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>58,13%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>50,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>52,32%</t>
+          <t>58,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>32,93%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48,94%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36,69%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>51,95%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>45,51%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>43,93%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,64; 58,44</t>
+          <t>35,28; 57,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,85; 48,65</t>
+          <t>27,04; 49,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,58; 67,64</t>
+          <t>27,49; 56,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,63; 39,88</t>
+          <t>34,49; 67,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,36; 59,81</t>
+          <t>48,94; 67,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,93; 41,75</t>
+          <t>24,41; 41,68</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37,29; 59,54</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24,48; 50,1</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>45,44; 59,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29,01; 42,36</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>37,04; 54,6</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33,63; 54,72</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12,59%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15,04%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 14,87</t>
+          <t>2,12; 12,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 13,06</t>
+          <t>1,45; 10,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 15,99</t>
+          <t>0,0; 15,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 18,52</t>
+          <t>2,93; 22,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 12,73</t>
+          <t>3,91; 14,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 13,11</t>
+          <t>7,13; 18,1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6,99; 20,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6,0; 30,17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 11,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,3; 12,17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,87; 14,59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6,66; 23,14</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,93%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>57,64%</t>
+          <t>57,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>54,07%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>55,26%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38,47%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>48,27%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41,06%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>56,39%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>45,69%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>43,58%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,28; 58,26</t>
+          <t>37,1; 60,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,39; 67,58</t>
+          <t>45,71; 67,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,68; 43,24</t>
+          <t>39,6; 69,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,64; 64,79</t>
+          <t>25,05; 57,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,33; 47,56</t>
+          <t>24,81; 42,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,79; 64,1</t>
+          <t>46,92; 63,91</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28,67; 49,57</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>34,24; 62,62</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34,03; 48,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>49,33; 63,1</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36,83; 55,09</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>32,42; 53,37</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,52; 55,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,3; 49,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,33; 57,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,19; 42,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,65; 53,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,81; 43,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>47,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>36,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46,48%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36,15%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31,92%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>40,57%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,5; 34,67</t>
+          <t>32,14; 58,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,29; 19,77</t>
+          <t>27,38; 51,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,46; 32,04</t>
+          <t>15,75; 39,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,86; 29,67</t>
+          <t>18,24; 51,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,25; 32,06</t>
+          <t>39,73; 56,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,21; 22,39</t>
+          <t>29,82; 43,62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29,79; 49,08</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36,13; 57,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38,06; 54,49</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30,39; 45,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>22,68; 39,66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29,92; 50,96</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>52,3%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>22,63%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10,89%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9,83%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23,4%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,77; 43,46</t>
+          <t>15,84; 32,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,86; 61,67</t>
+          <t>6,98; 18,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,66; 36,37</t>
+          <t>5,72; 20,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,61; 49,04</t>
+          <t>1,86; 21,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,54; 37,23</t>
+          <t>15,57; 31,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,07; 53,98</t>
+          <t>16,85; 28,97</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 18,44</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 18,17</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17,76; 29,31</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12,61; 21,46</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 17,41</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 15,69</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>32,92%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>52,24%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>52,81%</t>
+          <t>60,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>57,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>41,16%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>50,49%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>43,69%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31,12%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>47,07%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>56,51%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>50,67%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>29,81; 46,86</t>
+          <t>22,9; 43,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,11; 49,36</t>
+          <t>39,48; 61,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>46,26; 59,6</t>
+          <t>46,75; 77,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,02; 41,47</t>
+          <t>38,83; 77,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,16; 51,73</t>
+          <t>20,84; 37,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,29; 43,26</t>
+          <t>34,23; 48,21</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>39,75; 59,46</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>33,62; 54,31</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24,52; 37,21</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>40,07; 53,6</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>47,28; 68,5</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>40,38; 62,59</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,7; 27,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,85; 27,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,44; 25,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,68; 27,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,9; 23,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,76; 25,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>39,17%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>40,12%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>43,79%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>52,39%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>35,67%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>33,54%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>34,72%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>45,97%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>37,89%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>38,53%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>39,47%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>36,86; 56,37</t>
+          <t>30,18; 47,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>33,42; 49,08</t>
+          <t>32,47; 48,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,48; 33,7</t>
+          <t>35,34; 54,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36,87; 47,88</t>
+          <t>32,82; 55,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,14; 42,49</t>
+          <t>45,81; 58,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>36,12; 46,39</t>
+          <t>30,13; 41,69</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>27,87; 40,26</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>26,21; 43,53</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>40,59; 51,43</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>33,53; 43,06</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>33,41; 44,27</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>32,37; 46,48</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>50,89%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>50,72%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>40,26%</t>
+          <t>22,45%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>18,9%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>14,86%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>20,41%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>15,04%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>10,59%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>42,63; 58,13</t>
+          <t>8,8; 23,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>32,07; 46,46</t>
+          <t>12,94; 26,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>44,04; 56,99</t>
+          <t>6,69; 16,8</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>36,04; 47,59</t>
+          <t>2,75; 15,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>45,65; 56,48</t>
+          <t>15,5; 26,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>35,77; 45,19</t>
+          <t>18,06; 27,46</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 24,98</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>8,59; 22,76</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>13,57; 22,53</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>16,59; 24,79</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>11,64; 18,5</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 15,94</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>45,24%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>41,87%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>47,56%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>50,42%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>36,38%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>41,7%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>46,43%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>49,94%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>14,66; 27,11</t>
+          <t>37,63; 57,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>16,81; 28,35</t>
+          <t>33,3; 49,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>14,82; 25,37</t>
+          <t>35,61; 54,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>14,89; 24,14</t>
+          <t>38,97; 60,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,19; 24,56</t>
+          <t>20,73; 32,69</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,35; 24,82</t>
+          <t>35,85; 48,11</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>41,16; 54,26</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>41,27; 60,24</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>31,08; 43,41</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>37,14; 46,86</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>41,2; 51,73</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>42,5; 57,11</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>21,54; 38,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>32,7; 45,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>24,24; 35,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>33,38; 44,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,39; 34,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>34,46; 43,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>49,99%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>38,23%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>49,87%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>41,87%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>33,92%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>40,66%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>49,93%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>40,08%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>31,74%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>36,73%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>32,84; 49,38</t>
+          <t>42,44; 58,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>31,93; 45,95</t>
+          <t>31,7; 46,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>30,07; 46,27</t>
+          <t>21,83; 37,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>26,53; 40,3</t>
+          <t>23,59; 43,8</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>33,83; 45,36</t>
+          <t>42,7; 56,89</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>31,59; 41,35</t>
+          <t>36,3; 47,53</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>27,62; 41,03</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>31,31; 49,71</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>44,5; 54,92</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>35,74; 44,56</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>26,79; 36,97</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>30,1; 44,08</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>19,42%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>32,54%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>20,12%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>20,85%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>15,49%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>23,35%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>21,17; 37,46</t>
+          <t>14,7; 26,62</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>22,67; 34,51</t>
+          <t>17,16; 28,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>18,76; 34,03</t>
+          <t>9,58; 20,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>27,46; 41,18</t>
+          <t>8,66; 22,46</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>22,25; 33,33</t>
+          <t>14,95; 25,11</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>26,61; 36,01</t>
+          <t>15,5; 24,37</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 21,81</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>24,41; 41,61</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>16,32; 23,99</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>17,24; 24,57</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 19,84</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>18,02; 28,64</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>55,95%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>51,94%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>38,71%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>49,56%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>29,96%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>39,07%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>52,77%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>39,92%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>22,13; 39,73</t>
+          <t>22,27; 38,69</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>25,73; 38,69</t>
+          <t>32,51; 46,09</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>28,44; 44,54</t>
+          <t>47,92; 65,42</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>25,67; 40,09</t>
+          <t>40,83; 62,31</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>27,69; 39,18</t>
+          <t>24,1; 36,74</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>28,37; 37,71</t>
+          <t>33,03; 44,16</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>42,44; 55,9</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>19,57; 36,41</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>25,21; 35,69</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>35,07; 43,88</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>47,32; 58,65</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>32,62; 47,07</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>33,95; 59,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>20,11; 34,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>18,08; 32,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>21,17; 35,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>26,91; 43,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>22,93; 32,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>37,04%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>33,42%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>34,56%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>34,68%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>39,13%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>36,2%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>31,07%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>34,59%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>22,68; 43,13</t>
+          <t>33,18; 49,37</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>34,66; 52,91</t>
+          <t>32,58; 46,15</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>34,38; 54,34</t>
+          <t>20,63; 37,59</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>31,01; 50,73</t>
+          <t>25,25; 44,82</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>31,57; 46,7</t>
+          <t>29,62; 45,8</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>34,81; 48,85</t>
+          <t>26,38; 40,25</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>25,48; 43,37</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>26,31; 44,12</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>33,44; 45,08</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>31,43; 41,2</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>25,16; 37,04</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>27,52; 41,59</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
+          <t>25,54%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>34,14%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>21,88%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>21,08%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
           <t>27,48%</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>31,7%</t>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>31,14%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>19,49%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>24,11%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,55; 32,56</t>
+          <t>21,99; 38,07</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>23,26; 40,86</t>
+          <t>22,96; 34,47</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>22,67; 43,9</t>
+          <t>11,91; 23,87</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>24,39; 39,77</t>
+          <t>18,86; 38,62</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>20,91; 35,88</t>
+          <t>19,2; 33,88</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>25,69; 37,29</t>
+          <t>28,11; 41,15</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>14,56; 34,25</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>14,36; 30,68</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>22,1; 32,93</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>26,93; 35,83</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>14,5; 26,13</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 30,92</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>45,03%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>32,44%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>43,56%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>44,23%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>33,38%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>32,66%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>49,44%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>41,3%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>39,89; 48,46</t>
+          <t>22,53; 40,02</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>33,25; 40,16</t>
+          <t>27,04; 39,03</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>41,68; 48,3</t>
+          <t>45,46; 64,25</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>31,59; 37,02</t>
+          <t>28,17; 49,27</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>41,62; 47,17</t>
+          <t>29,83; 46,33</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>33,26; 37,88</t>
+          <t>26,23; 40,58</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>33,55; 52,61</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>34,38; 53,23</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>27,71; 39,92</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>28,13; 37,85</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>43,12; 56,82</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>34,36; 48,69</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>18,31; 24,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>18,6; 24,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>21,46; 27,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>22,77; 28,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>20,72; 25,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>21,36; 25,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>44,27%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>32,95%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>25,51%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>29,93%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>33,62%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>34,58%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>33,71%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>28,86%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>33,33%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>31,79%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>30,47; 38,61</t>
+          <t>34,6; 56,86</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>38,92; 45,87</t>
+          <t>20,18; 35,07</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>27,27; 33,69</t>
+          <t>21,93; 44,68</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>37,2; 43,39</t>
+          <t>17,02; 40,97</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>30,01; 35,42</t>
+          <t>19,02; 33,18</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>38,93; 43,46</t>
+          <t>23,67; 37,73</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>23,62; 43,69</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>22,7; 50,25</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>27,62; 41,73</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>23,77; 33,58</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>26,39; 41,03</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>23,45; 43,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>32,72%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>42,41%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>27,82%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>36,92%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>44,22%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>37,66%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>27,97%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>28,35%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>39,19%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>39,76%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>27,9%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>31,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>23,74; 42,81</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>33,22; 51,4</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>18,67; 40,04</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>25,89; 50,61</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>35,6; 53,52</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>29,86; 47,22</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>18,3; 39,97</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 43,45</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>32,38; 46,12</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>34,34; 46,0</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>20,97; 36,81</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 42,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>23,01%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>30,08%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>39,22%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>35,18%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>30,28%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>32,41%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>38,41%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>37,07%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>27,1%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>31,38%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>38,77%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>36,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>15,78; 32,2</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 38,73</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>29,28; 51,38</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>22,71; 48,91</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>22,56; 40,07</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>25,63; 39,81</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>28,18; 48,87</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>24,67; 50,91</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>21,56; 33,62</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 36,89</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>31,24; 46,39</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>27,48; 46,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>43,97%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>36,66%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>33,68%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>37,4%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>44,89%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>35,14%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>36,72%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>37,74%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>44,43%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>35,89%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>35,22%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>37,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>39,82; 48,65</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>33,27; 40,44</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>29,28; 38,53</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>32,12; 42,73</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>41,77; 48,35</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>32,15; 37,97</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>33,01; 40,49</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>33,17; 42,87</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>41,75; 47,12</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>33,69; 38,3</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>32,06; 37,98</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>33,95; 41,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>21,01%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>16,75%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>24,45%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>18,62%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>20,97%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>22,61%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>22,95%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>17,8; 24,1</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>18,44; 23,85</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 17,76</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>13,56; 20,97</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>21,38; 27,62</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>22,4; 27,9</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>15,59; 22,22</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 25,33</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>20,48; 24,75</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>21,02; 24,84</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 18,96</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>16,05; 21,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>35,29%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>42,34%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>51,84%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>45,85%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>30,66%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>44,66%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>41,29%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>32,96%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>41,16%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>48,21%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>43,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>31,4; 39,77</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>38,74; 45,54</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>47,34; 57,19</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>40,18; 52,07</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>27,13; 33,56</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>37,12; 43,03</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>40,95; 48,29</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>37,14; 45,97</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>30,51; 35,51</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>38,69; 43,43</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>45,24; 51,65</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>39,9; 47,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P31-Edad-long_dif.xlsx
+++ b/data/long_dif/P31-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
